--- a/examples/reports/ru-ru/RegistryCompaniesReportTemplate.xlsx
+++ b/examples/reports/ru-ru/RegistryCompaniesReportTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bidzaar\src\etplight\backend\services\reportgenerator\src\Cognitive.ReportGenerator\Templates\ru-ru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002136CE-80E3-4B76-958C-9CEA2D818C2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC1DCA1-7190-4430-BDFF-4A39F34A44FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Компании реестра</t>
   </si>
   <si>
-    <t>Сформировано сервисом Bidzaar в $.Now, время в документе указано в часовом поясе $.Tz</t>
-  </si>
-  <si>
     <t>Реестр</t>
   </si>
   <si>
@@ -114,14 +111,17 @@
     <t>$.Companies[*].Tin</t>
   </si>
   <si>
-    <t>TIN (ИНН/КПП)</t>
+    <t>$.FieldTin</t>
+  </si>
+  <si>
+    <t>Документ сформирован $.Now, время в документе указано в часовом поясе $.Tz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -159,6 +159,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,6 +237,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -617,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
@@ -642,37 +651,36 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15.6">
-      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="15.6">
       <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6">
       <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6">
       <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6">
@@ -680,72 +688,72 @@
     </row>
     <row r="8" spans="1:11" ht="16.2" thickBot="1">
       <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6">
       <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6">
@@ -790,6 +798,6 @@
     <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>